--- a/BubbleSort Grafico/bubbleSort.xlsx
+++ b/BubbleSort Grafico/bubbleSort.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\Faculdado_Geral\Faculade\5 SEMESTRE\Projeto de Linguagens de Programação\Prova II\Prova2PLP\BubbleSort Grafico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE5CEFA-430B-4AF9-A122-363C87166463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EE296E-9A20-4200-B7C7-CCC4D77AC027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>C</t>
   </si>
@@ -49,6 +59,9 @@
   </si>
   <si>
     <t>Php</t>
+  </si>
+  <si>
+    <t>Média</t>
   </si>
 </sst>
 </file>
@@ -3573,6 +3586,1180 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10960180890413478"/>
+          <c:y val="0.15601613862546038"/>
+          <c:w val="0.84779766692791059"/>
+          <c:h val="0.70537931211473359"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Php</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$I$2:$I$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5712</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5713</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5693</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5722</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5724</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5728</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5705</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5721</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5746</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5682</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5741</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5732</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5720</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5712</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5745</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5707</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5704</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5716</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5721</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5734</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5739</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5708</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5756</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5716</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5720</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5723</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5730</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5732</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5711</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5716</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5694</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5702</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5715</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5751</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5734</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5702</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5727</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5715</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5764</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5748</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5714</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5723</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5702</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5762</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5699</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5719</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5703</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5705</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5715</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5730</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5733</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5710</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5720</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5737</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5699</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5726</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5702</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5705</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5710</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5709</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5714</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5677</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5723</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5716</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5664</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5711</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5702</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5725</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5748</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5710</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5721</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5735</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5714</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5707</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5720</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5695</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5720</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5697</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5691</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5818</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5739</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5690</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5743</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5711</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5712</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5692</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5695</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5714</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5693</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B814-4CFF-9DDC-75E5993A6A79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="119563615"/>
+        <c:axId val="119563199"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="119563615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Execuções</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119563199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="119563199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tempo em milissegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119563615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Média</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de Tempo das Linguagens</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.116103743610996"/>
+          <c:y val="9.8210767337621963E-2"/>
+          <c:w val="0.84179099323110929"/>
+          <c:h val="0.80329178278178393"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$X$1:$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fortran</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JavaScript</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lisp</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pascal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Php</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$X$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>233.54606999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0816999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9139.4098758697492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5720.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6213-4406-B30E-74BDA2C9997B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="159384367"/>
+        <c:axId val="159386031"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="159384367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159386031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159386031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159384367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3773,6 +4960,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6000,6 +7267,1025 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6535,6 +8821,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0E5CCB-4E0C-A17C-B5F4-191286CDB89A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C64DB2-81E3-8262-2E38-94251F75F39D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6801,15 +9159,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I101"/>
+  <dimension ref="B1:AE103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S123" sqref="S123"/>
+    <sheetView tabSelected="1" topLeftCell="N20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6834,8 +9192,32 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>255.797</v>
       </c>
@@ -6851,8 +9233,38 @@
       <c r="H2">
         <v>9064.31102752685</v>
       </c>
+      <c r="I2">
+        <v>5921</v>
+      </c>
+      <c r="W2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2">
+        <v>233.54606999999999</v>
+      </c>
+      <c r="Y2">
+        <v>3.0816999999999997</v>
+      </c>
+      <c r="Z2">
+        <v>134.72</v>
+      </c>
+      <c r="AA2">
+        <v>180.07</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>9139.4098758697492</v>
+      </c>
+      <c r="AE2">
+        <v>5720.76</v>
+      </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>228.88800000000001</v>
       </c>
@@ -6868,8 +9280,11 @@
       <c r="H3">
         <v>9070.2230930328296</v>
       </c>
+      <c r="I3">
+        <v>5737</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>231.69900000000001</v>
       </c>
@@ -6885,8 +9300,11 @@
       <c r="H4">
         <v>9165.2944087982105</v>
       </c>
+      <c r="I4">
+        <v>5767</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>231.285</v>
       </c>
@@ -6902,8 +9320,11 @@
       <c r="H5">
         <v>9085.8657360076904</v>
       </c>
+      <c r="I5">
+        <v>5702</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>228.46299999999999</v>
       </c>
@@ -6919,8 +9340,11 @@
       <c r="H6">
         <v>9159.5199108123707</v>
       </c>
+      <c r="I6">
+        <v>5705</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>231.221</v>
       </c>
@@ -6936,8 +9360,11 @@
       <c r="H7">
         <v>9047.9605197906494</v>
       </c>
+      <c r="I7">
+        <v>5718</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>226.529</v>
       </c>
@@ -6953,8 +9380,11 @@
       <c r="H8">
         <v>9431.7317008972095</v>
       </c>
+      <c r="I8">
+        <v>5712</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>228.739</v>
       </c>
@@ -6970,8 +9400,11 @@
       <c r="H9">
         <v>9069.2806243896393</v>
       </c>
+      <c r="I9">
+        <v>5713</v>
+      </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>231.09200000000001</v>
       </c>
@@ -6987,8 +9420,11 @@
       <c r="H10">
         <v>9188.5349750518799</v>
       </c>
+      <c r="I10">
+        <v>5693</v>
+      </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>230.131</v>
       </c>
@@ -7004,8 +9440,11 @@
       <c r="H11">
         <v>9107.0523262023908</v>
       </c>
+      <c r="I11">
+        <v>5722</v>
+      </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>225.779</v>
       </c>
@@ -7021,8 +9460,11 @@
       <c r="H12">
         <v>9230.8056354522705</v>
       </c>
+      <c r="I12">
+        <v>5697</v>
+      </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>226.38800000000001</v>
       </c>
@@ -7038,8 +9480,11 @@
       <c r="H13">
         <v>9073.4734535217194</v>
       </c>
+      <c r="I13">
+        <v>5724</v>
+      </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>239.09200000000001</v>
       </c>
@@ -7055,8 +9500,11 @@
       <c r="H14">
         <v>9215.0120735168402</v>
       </c>
+      <c r="I14">
+        <v>5728</v>
+      </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>236.89699999999999</v>
       </c>
@@ -7072,8 +9520,11 @@
       <c r="H15">
         <v>9066.7133331298792</v>
       </c>
+      <c r="I15">
+        <v>5705</v>
+      </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>230.89099999999999</v>
       </c>
@@ -7089,8 +9540,11 @@
       <c r="H16">
         <v>9284.9714756011908</v>
       </c>
+      <c r="I16">
+        <v>5721</v>
+      </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>224.28899999999999</v>
       </c>
@@ -7106,8 +9560,11 @@
       <c r="H17">
         <v>9099.56812858581</v>
       </c>
+      <c r="I17">
+        <v>5746</v>
+      </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>227.048</v>
       </c>
@@ -7123,8 +9580,11 @@
       <c r="H18">
         <v>9084.3508243560791</v>
       </c>
+      <c r="I18">
+        <v>5682</v>
+      </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>229.5</v>
       </c>
@@ -7140,8 +9600,11 @@
       <c r="H19">
         <v>9056.0779571533203</v>
       </c>
+      <c r="I19">
+        <v>5741</v>
+      </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>226.715</v>
       </c>
@@ -7157,8 +9620,11 @@
       <c r="H20">
         <v>9143.7227725982593</v>
       </c>
+      <c r="I20">
+        <v>5732</v>
+      </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>225.58500000000001</v>
       </c>
@@ -7174,8 +9640,11 @@
       <c r="H21">
         <v>9129.5192241668701</v>
       </c>
+      <c r="I21">
+        <v>5720</v>
+      </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>230.98500000000001</v>
       </c>
@@ -7191,8 +9660,11 @@
       <c r="H22">
         <v>9210.3974819183295</v>
       </c>
+      <c r="I22">
+        <v>5712</v>
+      </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>252.601</v>
       </c>
@@ -7208,8 +9680,11 @@
       <c r="H23">
         <v>9063.6498928069996</v>
       </c>
+      <c r="I23">
+        <v>5745</v>
+      </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>246.43899999999999</v>
       </c>
@@ -7225,8 +9700,11 @@
       <c r="H24">
         <v>9194.7269439697193</v>
       </c>
+      <c r="I24">
+        <v>5707</v>
+      </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>236.37299999999999</v>
       </c>
@@ -7242,8 +9720,11 @@
       <c r="H25">
         <v>9141.9298648834192</v>
       </c>
+      <c r="I25">
+        <v>5704</v>
+      </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>227.114</v>
       </c>
@@ -7259,8 +9740,11 @@
       <c r="H26">
         <v>9199.5902061462402</v>
       </c>
+      <c r="I26">
+        <v>5716</v>
+      </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>232.06399999999999</v>
       </c>
@@ -7276,8 +9760,11 @@
       <c r="H27">
         <v>9282.0162773132306</v>
       </c>
+      <c r="I27">
+        <v>5721</v>
+      </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>231.47800000000001</v>
       </c>
@@ -7293,8 +9780,11 @@
       <c r="H28">
         <v>9222.2640514373707</v>
       </c>
+      <c r="I28">
+        <v>5734</v>
+      </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>228.89</v>
       </c>
@@ -7310,8 +9800,11 @@
       <c r="H29">
         <v>9319.82326507568</v>
       </c>
+      <c r="I29">
+        <v>5739</v>
+      </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>231.55600000000001</v>
       </c>
@@ -7327,8 +9820,11 @@
       <c r="H30">
         <v>9130.7022571563703</v>
       </c>
+      <c r="I30">
+        <v>5708</v>
+      </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>227.94800000000001</v>
       </c>
@@ -7344,8 +9840,11 @@
       <c r="H31">
         <v>9115.4117584228497</v>
       </c>
+      <c r="I31">
+        <v>5756</v>
+      </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>230.404</v>
       </c>
@@ -7361,8 +9860,11 @@
       <c r="H32">
         <v>9264.9333477020191</v>
       </c>
+      <c r="I32">
+        <v>5716</v>
+      </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>230.316</v>
       </c>
@@ -7378,8 +9880,11 @@
       <c r="H33">
         <v>9051.2759685516303</v>
       </c>
+      <c r="I33">
+        <v>5720</v>
+      </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>240.52199999999999</v>
       </c>
@@ -7395,8 +9900,11 @@
       <c r="H34">
         <v>9230.7264804839997</v>
       </c>
+      <c r="I34">
+        <v>5723</v>
+      </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>235.29900000000001</v>
       </c>
@@ -7412,8 +9920,11 @@
       <c r="H35">
         <v>9075.1531124114899</v>
       </c>
+      <c r="I35">
+        <v>5730</v>
+      </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>238.23599999999999</v>
       </c>
@@ -7429,8 +9940,11 @@
       <c r="H36">
         <v>9133.3684921264594</v>
       </c>
+      <c r="I36">
+        <v>5732</v>
+      </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>236.91800000000001</v>
       </c>
@@ -7446,8 +9960,11 @@
       <c r="H37">
         <v>9239.1111850738507</v>
       </c>
+      <c r="I37">
+        <v>5711</v>
+      </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>238.36799999999999</v>
       </c>
@@ -7463,8 +9980,11 @@
       <c r="H38">
         <v>9076.4169692993091</v>
       </c>
+      <c r="I38">
+        <v>5702</v>
+      </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>229.75700000000001</v>
       </c>
@@ -7480,8 +10000,11 @@
       <c r="H39">
         <v>9093.2822227477991</v>
       </c>
+      <c r="I39">
+        <v>5806</v>
+      </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>235.30099999999999</v>
       </c>
@@ -7497,8 +10020,11 @@
       <c r="H40">
         <v>9177.12473869323</v>
       </c>
+      <c r="I40">
+        <v>5716</v>
+      </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>228.71799999999999</v>
       </c>
@@ -7514,8 +10040,11 @@
       <c r="H41">
         <v>9082.0748805999701</v>
       </c>
+      <c r="I41">
+        <v>5694</v>
+      </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>231.69</v>
       </c>
@@ -7531,8 +10060,11 @@
       <c r="H42">
         <v>9114.0756607055591</v>
       </c>
+      <c r="I42">
+        <v>5702</v>
+      </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>227.78700000000001</v>
       </c>
@@ -7548,8 +10080,11 @@
       <c r="H43">
         <v>9065.5841827392505</v>
       </c>
+      <c r="I43">
+        <v>5715</v>
+      </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>231.35400000000001</v>
       </c>
@@ -7565,8 +10100,11 @@
       <c r="H44">
         <v>9115.5123710632306</v>
       </c>
+      <c r="I44">
+        <v>5751</v>
+      </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>235.774</v>
       </c>
@@ -7582,8 +10120,11 @@
       <c r="H45">
         <v>9045.6261634826606</v>
       </c>
+      <c r="I45">
+        <v>5734</v>
+      </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>229.84399999999999</v>
       </c>
@@ -7599,8 +10140,11 @@
       <c r="H46">
         <v>9285.0110530853199</v>
       </c>
+      <c r="I46">
+        <v>5702</v>
+      </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>246.97300000000001</v>
       </c>
@@ -7616,8 +10160,11 @@
       <c r="H47">
         <v>9052.1082878112793</v>
       </c>
+      <c r="I47">
+        <v>5727</v>
+      </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>233.393</v>
       </c>
@@ -7633,8 +10180,11 @@
       <c r="H48">
         <v>9160.60471534729</v>
       </c>
+      <c r="I48">
+        <v>5694</v>
+      </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>242.74</v>
       </c>
@@ -7650,8 +10200,11 @@
       <c r="H49">
         <v>9139.6033763885498</v>
       </c>
+      <c r="I49">
+        <v>5715</v>
+      </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>235.13499999999999</v>
       </c>
@@ -7667,8 +10220,11 @@
       <c r="H50">
         <v>9309.9963665008509</v>
       </c>
+      <c r="I50">
+        <v>5764</v>
+      </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>230.75299999999999</v>
       </c>
@@ -7684,8 +10240,11 @@
       <c r="H51">
         <v>9108.7057590484601</v>
       </c>
+      <c r="I51">
+        <v>5748</v>
+      </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>226.46799999999999</v>
       </c>
@@ -7701,8 +10260,11 @@
       <c r="H52">
         <v>9200.1423835754395</v>
       </c>
+      <c r="I52">
+        <v>5714</v>
+      </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>229.24100000000001</v>
       </c>
@@ -7718,8 +10280,11 @@
       <c r="H53">
         <v>9109.2054843902497</v>
       </c>
+      <c r="I53">
+        <v>5723</v>
+      </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>230.137</v>
       </c>
@@ -7735,8 +10300,11 @@
       <c r="H54">
         <v>9147.8710174560492</v>
       </c>
+      <c r="I54">
+        <v>5702</v>
+      </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>227.85</v>
       </c>
@@ -7752,8 +10320,11 @@
       <c r="H55">
         <v>9127.9044151306098</v>
       </c>
+      <c r="I55">
+        <v>5762</v>
+      </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>226.99100000000001</v>
       </c>
@@ -7769,8 +10340,11 @@
       <c r="H56">
         <v>9283.6618423461896</v>
       </c>
+      <c r="I56">
+        <v>5699</v>
+      </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>228.82900000000001</v>
       </c>
@@ -7786,8 +10360,11 @@
       <c r="H57">
         <v>9099.3177890777497</v>
       </c>
+      <c r="I57">
+        <v>5719</v>
+      </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>248.06700000000001</v>
       </c>
@@ -7803,8 +10380,11 @@
       <c r="H58">
         <v>9112.2839450836109</v>
       </c>
+      <c r="I58">
+        <v>5703</v>
+      </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>233.858</v>
       </c>
@@ -7820,8 +10400,11 @@
       <c r="H59">
         <v>9075.2472877502405</v>
       </c>
+      <c r="I59">
+        <v>5705</v>
+      </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>234.429</v>
       </c>
@@ -7837,8 +10420,11 @@
       <c r="H60">
         <v>9193.3650970458893</v>
       </c>
+      <c r="I60">
+        <v>5715</v>
+      </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>237.22200000000001</v>
       </c>
@@ -7854,8 +10440,11 @@
       <c r="H61">
         <v>9139.2526626586896</v>
       </c>
+      <c r="I61">
+        <v>5730</v>
+      </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>239.75700000000001</v>
       </c>
@@ -7871,8 +10460,11 @@
       <c r="H62">
         <v>9099.3804931640607</v>
       </c>
+      <c r="I62">
+        <v>5733</v>
+      </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>239.69200000000001</v>
       </c>
@@ -7888,8 +10480,11 @@
       <c r="H63">
         <v>9079.1463851928693</v>
       </c>
+      <c r="I63">
+        <v>5710</v>
+      </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>231.5</v>
       </c>
@@ -7905,8 +10500,11 @@
       <c r="H64">
         <v>9175.7154464721607</v>
       </c>
+      <c r="I64">
+        <v>5720</v>
+      </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>240.84399999999999</v>
       </c>
@@ -7922,8 +10520,11 @@
       <c r="H65">
         <v>9117.6576614379792</v>
       </c>
+      <c r="I65">
+        <v>5737</v>
+      </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>231.541</v>
       </c>
@@ -7939,8 +10540,11 @@
       <c r="H66">
         <v>9070.9013938903809</v>
       </c>
+      <c r="I66">
+        <v>5699</v>
+      </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>233.07300000000001</v>
       </c>
@@ -7956,8 +10560,11 @@
       <c r="H67">
         <v>9030.4083824157697</v>
       </c>
+      <c r="I67">
+        <v>5726</v>
+      </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>228.72200000000001</v>
       </c>
@@ -7973,8 +10580,11 @@
       <c r="H68">
         <v>9134.8197460174506</v>
       </c>
+      <c r="I68">
+        <v>5702</v>
+      </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>227.66</v>
       </c>
@@ -7990,8 +10600,11 @@
       <c r="H69">
         <v>9055.3159713745099</v>
       </c>
+      <c r="I69">
+        <v>5705</v>
+      </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>253.79300000000001</v>
       </c>
@@ -8007,8 +10620,11 @@
       <c r="H70">
         <v>9150.9320735931396</v>
       </c>
+      <c r="I70">
+        <v>5710</v>
+      </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>238.56700000000001</v>
       </c>
@@ -8024,8 +10640,11 @@
       <c r="H71">
         <v>9092.9732322692798</v>
       </c>
+      <c r="I71">
+        <v>5709</v>
+      </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>233.72399999999999</v>
       </c>
@@ -8041,8 +10660,11 @@
       <c r="H72">
         <v>9078.9783000946009</v>
       </c>
+      <c r="I72">
+        <v>5714</v>
+      </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>244.553</v>
       </c>
@@ -8058,8 +10680,11 @@
       <c r="H73">
         <v>9102.3442745208704</v>
       </c>
+      <c r="I73">
+        <v>5677</v>
+      </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>235.17500000000001</v>
       </c>
@@ -8075,8 +10700,11 @@
       <c r="H74">
         <v>9169.2690849304199</v>
       </c>
+      <c r="I74">
+        <v>5723</v>
+      </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>245.458</v>
       </c>
@@ -8092,8 +10720,11 @@
       <c r="H75">
         <v>9113.5995388031006</v>
       </c>
+      <c r="I75">
+        <v>5716</v>
+      </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>233.75</v>
       </c>
@@ -8109,8 +10740,11 @@
       <c r="H76">
         <v>9167.1884059906006</v>
       </c>
+      <c r="I76">
+        <v>5664</v>
+      </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>236.04900000000001</v>
       </c>
@@ -8126,8 +10760,11 @@
       <c r="H77">
         <v>9094.2838191985993</v>
       </c>
+      <c r="I77">
+        <v>5711</v>
+      </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>250.22900000000001</v>
       </c>
@@ -8143,8 +10780,11 @@
       <c r="H78">
         <v>9162.7013683319092</v>
       </c>
+      <c r="I78">
+        <v>5702</v>
+      </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>237.82</v>
       </c>
@@ -8160,8 +10800,11 @@
       <c r="H79">
         <v>9086.3733291625904</v>
       </c>
+      <c r="I79">
+        <v>5725</v>
+      </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>234.22</v>
       </c>
@@ -8177,8 +10820,11 @@
       <c r="H80">
         <v>9194.4108009338306</v>
       </c>
+      <c r="I80">
+        <v>5748</v>
+      </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>226.87299999999999</v>
       </c>
@@ -8194,8 +10840,11 @@
       <c r="H81">
         <v>9287.2209548950195</v>
       </c>
+      <c r="I81">
+        <v>5710</v>
+      </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>235.089</v>
       </c>
@@ -8211,8 +10860,11 @@
       <c r="H82">
         <v>9227.25415229797</v>
       </c>
+      <c r="I82">
+        <v>5721</v>
+      </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>236.69399999999999</v>
       </c>
@@ -8228,8 +10880,11 @@
       <c r="H83">
         <v>9055.7308197021393</v>
       </c>
+      <c r="I83">
+        <v>5735</v>
+      </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>237.33799999999999</v>
       </c>
@@ -8245,8 +10900,11 @@
       <c r="H84">
         <v>9076.0684013366699</v>
       </c>
+      <c r="I84">
+        <v>5714</v>
+      </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>237.19900000000001</v>
       </c>
@@ -8262,8 +10920,11 @@
       <c r="H85">
         <v>9071.3570117950403</v>
       </c>
+      <c r="I85">
+        <v>5707</v>
+      </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>244.12899999999999</v>
       </c>
@@ -8279,8 +10940,11 @@
       <c r="H86">
         <v>9112.7631664276105</v>
       </c>
+      <c r="I86">
+        <v>5720</v>
+      </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>235.108</v>
       </c>
@@ -8296,8 +10960,11 @@
       <c r="H87">
         <v>9094.8064327239899</v>
       </c>
+      <c r="I87">
+        <v>5695</v>
+      </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>231.50800000000001</v>
       </c>
@@ -8313,8 +10980,11 @@
       <c r="H88">
         <v>9102.0362377166693</v>
       </c>
+      <c r="I88">
+        <v>5720</v>
+      </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>235.09</v>
       </c>
@@ -8330,8 +11000,11 @@
       <c r="H89">
         <v>9093.7631130218506</v>
       </c>
+      <c r="I89">
+        <v>5697</v>
+      </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>227.06</v>
       </c>
@@ -8347,8 +11020,11 @@
       <c r="H90">
         <v>9172.9953289031891</v>
       </c>
+      <c r="I90">
+        <v>5691</v>
+      </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>229.74100000000001</v>
       </c>
@@ -8364,8 +11040,11 @@
       <c r="H91">
         <v>9071.2511539459192</v>
       </c>
+      <c r="I91">
+        <v>5818</v>
+      </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>232.85499999999999</v>
       </c>
@@ -8381,8 +11060,11 @@
       <c r="H92">
         <v>9232.6602935790997</v>
       </c>
+      <c r="I92">
+        <v>5739</v>
+      </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>229.255</v>
       </c>
@@ -8398,8 +11080,11 @@
       <c r="H93">
         <v>9013.40818405151</v>
       </c>
+      <c r="I93">
+        <v>5690</v>
+      </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>228.334</v>
       </c>
@@ -8415,8 +11100,11 @@
       <c r="H94">
         <v>9223.2036590576099</v>
       </c>
+      <c r="I94">
+        <v>5743</v>
+      </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>231.428</v>
       </c>
@@ -8432,8 +11120,11 @@
       <c r="H95">
         <v>9055.7982921600305</v>
       </c>
+      <c r="I95">
+        <v>5711</v>
+      </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>228.48400000000001</v>
       </c>
@@ -8449,8 +11140,11 @@
       <c r="H96">
         <v>9235.7802391052192</v>
       </c>
+      <c r="I96">
+        <v>5712</v>
+      </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>227.97</v>
       </c>
@@ -8466,8 +11160,11 @@
       <c r="H97">
         <v>9086.3389968871998</v>
       </c>
+      <c r="I97">
+        <v>5692</v>
+      </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>229.489</v>
       </c>
@@ -8483,8 +11180,11 @@
       <c r="H98">
         <v>9225.7297039031891</v>
       </c>
+      <c r="I98">
+        <v>5695</v>
+      </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>224.09</v>
       </c>
@@ -8500,8 +11200,11 @@
       <c r="H99">
         <v>9068.9401626586896</v>
       </c>
+      <c r="I99">
+        <v>5714</v>
+      </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>230.68600000000001</v>
       </c>
@@ -8517,8 +11220,11 @@
       <c r="H100">
         <v>9211.10105514526</v>
       </c>
+      <c r="I100">
+        <v>5693</v>
+      </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>226.21</v>
       </c>
@@ -8533,6 +11239,43 @@
       </c>
       <c r="H101">
         <v>9083.3320617675708</v>
+      </c>
+      <c r="I101">
+        <v>5726</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <f>SUM(B1:B101)/100</f>
+        <v>233.54606999999999</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:I103" si="0">SUM(C1:C101)/100</f>
+        <v>3.0816999999999997</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="0"/>
+        <v>134.72</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="0"/>
+        <v>180.07</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="0"/>
+        <v>9139.4098758697492</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="0"/>
+        <v>5720.76</v>
       </c>
     </row>
   </sheetData>

--- a/BubbleSort Grafico/bubbleSort.xlsx
+++ b/BubbleSort Grafico/bubbleSort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\Faculdado_Geral\Faculade\5 SEMESTRE\Projeto de Linguagens de Programação\Prova II\Prova2PLP\BubbleSort Grafico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EE296E-9A20-4200-B7C7-CCC4D77AC027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2040407D-D951-4730-AC15-656BA79EF2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,6 +131,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -823,6 +852,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Fortran</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -905,304 +963,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>5.3159999999999998</c:v>
+                  <c:v>409.45101899999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8220000000000001</c:v>
+                  <c:v>385.358002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1929999999999996</c:v>
+                  <c:v>381.89297499999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4950000000000001</c:v>
+                  <c:v>383.54992700000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9369999999999998</c:v>
+                  <c:v>412.57595800000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0720000000000001</c:v>
+                  <c:v>380.01312300000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.016</c:v>
+                  <c:v>382.98486300000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8839999999999999</c:v>
+                  <c:v>380.44094799999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9910000000000001</c:v>
+                  <c:v>383.42309599999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0249999999999999</c:v>
+                  <c:v>385.18691999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.052</c:v>
+                  <c:v>380.159851</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0569999999999999</c:v>
+                  <c:v>381.81494099999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.952</c:v>
+                  <c:v>383.59594700000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.06</c:v>
+                  <c:v>384.02462800000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.04</c:v>
+                  <c:v>383.21875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.286</c:v>
+                  <c:v>384.43374599999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0619999999999998</c:v>
+                  <c:v>390.37704500000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.96</c:v>
+                  <c:v>409.52874800000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>384.35220299999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.1419999999999999</c:v>
+                  <c:v>378.60488900000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.9289999999999998</c:v>
+                  <c:v>385.42318699999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.98</c:v>
+                  <c:v>382.93075599999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.0179999999999998</c:v>
+                  <c:v>383.329407</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.8820000000000001</c:v>
+                  <c:v>384.58728000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0129999999999999</c:v>
+                  <c:v>389.04284699999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.952</c:v>
+                  <c:v>382.09533699999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0190000000000001</c:v>
+                  <c:v>388.54693600000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0270000000000001</c:v>
+                  <c:v>377.356537</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0009999999999999</c:v>
+                  <c:v>385.36166400000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9540000000000002</c:v>
+                  <c:v>384.38604700000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9670000000000001</c:v>
+                  <c:v>421.82827800000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0329999999999999</c:v>
+                  <c:v>386.44503800000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0489999999999999</c:v>
+                  <c:v>382.62652600000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.052</c:v>
+                  <c:v>379.55285600000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.9769999999999999</c:v>
+                  <c:v>385.55908199999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.0550000000000002</c:v>
+                  <c:v>376.87970000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.02</c:v>
+                  <c:v>380.61236600000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.0190000000000001</c:v>
+                  <c:v>394.05441300000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.0190000000000001</c:v>
+                  <c:v>380.17083700000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.9969999999999999</c:v>
+                  <c:v>381.544128</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.996</c:v>
+                  <c:v>382.82488999999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.9489999999999998</c:v>
+                  <c:v>381.75295999999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.0640000000000001</c:v>
+                  <c:v>379.98010299999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.9580000000000002</c:v>
+                  <c:v>418.86138899999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.9260000000000002</c:v>
+                  <c:v>383.88443000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.9969999999999999</c:v>
+                  <c:v>382.03619400000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.9860000000000002</c:v>
+                  <c:v>381.87408399999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.008</c:v>
+                  <c:v>380.43212899999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.9609999999999999</c:v>
+                  <c:v>383.28741500000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.0110000000000001</c:v>
+                  <c:v>381.04629499999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.06</c:v>
+                  <c:v>385.00402800000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.9119999999999999</c:v>
+                  <c:v>376.493469</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.0369999999999999</c:v>
+                  <c:v>385.59912100000003</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.97</c:v>
+                  <c:v>380.70489500000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.0489999999999999</c:v>
+                  <c:v>383.092896</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.0750000000000002</c:v>
+                  <c:v>381.721497</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0249999999999999</c:v>
+                  <c:v>413.63714599999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.911</c:v>
+                  <c:v>382.181152</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.008</c:v>
+                  <c:v>392.086029</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0529999999999999</c:v>
+                  <c:v>381.09777800000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.915</c:v>
+                  <c:v>383.75091600000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.9889999999999999</c:v>
+                  <c:v>382.62750199999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.0369999999999999</c:v>
+                  <c:v>382.18499800000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.0990000000000002</c:v>
+                  <c:v>382.04382299999997</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.9969999999999999</c:v>
+                  <c:v>382.62365699999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.9670000000000001</c:v>
+                  <c:v>378.78607199999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.0139999999999998</c:v>
+                  <c:v>378.82806399999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.03</c:v>
+                  <c:v>381.64520299999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.0390000000000001</c:v>
+                  <c:v>380.53131100000002</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.0720000000000001</c:v>
+                  <c:v>409.10913099999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.07</c:v>
+                  <c:v>382.02856400000002</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.9830000000000001</c:v>
+                  <c:v>379.78552200000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.972</c:v>
+                  <c:v>384.35745200000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.0179999999999998</c:v>
+                  <c:v>383.23593099999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.956</c:v>
+                  <c:v>377.700806</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.9820000000000002</c:v>
+                  <c:v>380.82312000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.9620000000000002</c:v>
+                  <c:v>381.57080100000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.915</c:v>
+                  <c:v>381.25799599999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.069</c:v>
+                  <c:v>380.58660900000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.01</c:v>
+                  <c:v>390.95495599999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.9329999999999998</c:v>
+                  <c:v>383.623108</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.9390000000000001</c:v>
+                  <c:v>384.52148399999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.0459999999999998</c:v>
+                  <c:v>410.83908100000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.9790000000000001</c:v>
+                  <c:v>380.21087599999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.968</c:v>
+                  <c:v>382.28988600000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.0310000000000001</c:v>
+                  <c:v>385.28823899999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.911</c:v>
+                  <c:v>382.61413599999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.0459999999999998</c:v>
+                  <c:v>380.46646099999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.996</c:v>
+                  <c:v>381.66427599999997</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.0390000000000001</c:v>
+                  <c:v>379.36019900000002</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.0230000000000001</c:v>
+                  <c:v>382.23266599999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.9529999999999998</c:v>
+                  <c:v>382.24410999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.0939999999999999</c:v>
+                  <c:v>382.91549700000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.9449999999999998</c:v>
+                  <c:v>387.378693</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.032</c:v>
+                  <c:v>381.088257</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.0419999999999998</c:v>
+                  <c:v>405.78079200000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.93</c:v>
+                  <c:v>385.372162</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.04</c:v>
+                  <c:v>379.94766199999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.9020000000000001</c:v>
+                  <c:v>383.75473</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.944</c:v>
+                  <c:v>382.65609699999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,6 +1563,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Java</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2212,6 +2299,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>JavaScript</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2900,6 +3016,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Python</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3601,6 +3746,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Php</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4318,14 +4492,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
+              <a:rPr lang="pt-BR" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Média</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:rPr lang="pt-BR" sz="2000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> de Tempo das Linguagens</a:t>
             </a:r>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="pt-BR" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4501,7 +4687,7 @@
                   <c:v>233.54606999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0816999999999997</c:v>
+                  <c:v>385.43599547000014</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>134.72</c:v>
@@ -4513,7 +4699,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>321.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9139.4098758697492</c:v>
@@ -4725,6 +4911,733 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Pascal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2035428127218785E-2"/>
+          <c:y val="0.1055671424573664"/>
+          <c:w val="0.90096667673976505"/>
+          <c:h val="0.79663366788401224"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pascal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$G$2:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EBD-49FB-9EEB-ED8191D908A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1486617583"/>
+        <c:axId val="1486622159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1486617583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Execuções</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1486622159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1486622159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tempo em  milissegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1486617583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5040,6 +5953,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8286,6 +9239,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8893,6 +10362,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4FF78B-C24C-738F-44AC-53603023879D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9161,8 +10666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AE103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB36" sqref="AB36"/>
+    <sheetView tabSelected="1" topLeftCell="D103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W165" sqref="W165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9222,7 +10727,7 @@
         <v>255.797</v>
       </c>
       <c r="C2">
-        <v>5.3159999999999998</v>
+        <v>409.45101899999997</v>
       </c>
       <c r="D2">
         <v>160</v>
@@ -9230,6 +10735,9 @@
       <c r="E2">
         <v>213</v>
       </c>
+      <c r="G2">
+        <v>322</v>
+      </c>
       <c r="H2">
         <v>9064.31102752685</v>
       </c>
@@ -9243,7 +10751,7 @@
         <v>233.54606999999999</v>
       </c>
       <c r="Y2">
-        <v>3.0816999999999997</v>
+        <v>385.43599547000014</v>
       </c>
       <c r="Z2">
         <v>134.72</v>
@@ -9255,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>321.01</v>
       </c>
       <c r="AD2">
         <v>9139.4098758697492</v>
@@ -9269,13 +10777,16 @@
         <v>228.88800000000001</v>
       </c>
       <c r="C3">
-        <v>4.8220000000000001</v>
+        <v>385.358002</v>
       </c>
       <c r="D3">
         <v>163</v>
       </c>
       <c r="E3">
         <v>211</v>
+      </c>
+      <c r="G3">
+        <v>319</v>
       </c>
       <c r="H3">
         <v>9070.2230930328296</v>
@@ -9289,13 +10800,16 @@
         <v>231.69900000000001</v>
       </c>
       <c r="C4">
-        <v>6.1929999999999996</v>
+        <v>381.89297499999998</v>
       </c>
       <c r="D4">
         <v>128</v>
       </c>
       <c r="E4">
         <v>189</v>
+      </c>
+      <c r="G4">
+        <v>319</v>
       </c>
       <c r="H4">
         <v>9165.2944087982105</v>
@@ -9309,13 +10823,16 @@
         <v>231.285</v>
       </c>
       <c r="C5">
-        <v>3.4950000000000001</v>
+        <v>383.54992700000003</v>
       </c>
       <c r="D5">
         <v>127</v>
       </c>
       <c r="E5">
         <v>186</v>
+      </c>
+      <c r="G5">
+        <v>318</v>
       </c>
       <c r="H5">
         <v>9085.8657360076904</v>
@@ -9329,13 +10846,16 @@
         <v>228.46299999999999</v>
       </c>
       <c r="C6">
-        <v>2.9369999999999998</v>
+        <v>412.57595800000001</v>
       </c>
       <c r="D6">
         <v>129</v>
       </c>
       <c r="E6">
         <v>179</v>
+      </c>
+      <c r="G6">
+        <v>319</v>
       </c>
       <c r="H6">
         <v>9159.5199108123707</v>
@@ -9349,13 +10869,16 @@
         <v>231.221</v>
       </c>
       <c r="C7">
-        <v>3.0720000000000001</v>
+        <v>380.01312300000001</v>
       </c>
       <c r="D7">
         <v>129</v>
       </c>
       <c r="E7">
         <v>179</v>
+      </c>
+      <c r="G7">
+        <v>326</v>
       </c>
       <c r="H7">
         <v>9047.9605197906494</v>
@@ -9369,13 +10892,16 @@
         <v>226.529</v>
       </c>
       <c r="C8">
-        <v>3.016</v>
+        <v>382.98486300000002</v>
       </c>
       <c r="D8">
         <v>128</v>
       </c>
       <c r="E8">
         <v>178</v>
+      </c>
+      <c r="G8">
+        <v>323</v>
       </c>
       <c r="H8">
         <v>9431.7317008972095</v>
@@ -9389,13 +10915,16 @@
         <v>228.739</v>
       </c>
       <c r="C9">
-        <v>2.8839999999999999</v>
+        <v>380.44094799999999</v>
       </c>
       <c r="D9">
         <v>127</v>
       </c>
       <c r="E9">
         <v>179</v>
+      </c>
+      <c r="G9">
+        <v>322</v>
       </c>
       <c r="H9">
         <v>9069.2806243896393</v>
@@ -9409,13 +10938,16 @@
         <v>231.09200000000001</v>
       </c>
       <c r="C10">
-        <v>2.9910000000000001</v>
+        <v>383.42309599999999</v>
       </c>
       <c r="D10">
         <v>130</v>
       </c>
       <c r="E10">
         <v>180</v>
+      </c>
+      <c r="G10">
+        <v>321</v>
       </c>
       <c r="H10">
         <v>9188.5349750518799</v>
@@ -9429,13 +10961,16 @@
         <v>230.131</v>
       </c>
       <c r="C11">
-        <v>3.0249999999999999</v>
+        <v>385.18691999999999</v>
       </c>
       <c r="D11">
         <v>128</v>
       </c>
       <c r="E11">
         <v>181</v>
+      </c>
+      <c r="G11">
+        <v>320</v>
       </c>
       <c r="H11">
         <v>9107.0523262023908</v>
@@ -9449,13 +10984,16 @@
         <v>225.779</v>
       </c>
       <c r="C12">
-        <v>3.052</v>
+        <v>380.159851</v>
       </c>
       <c r="D12">
         <v>128</v>
       </c>
       <c r="E12">
         <v>178</v>
+      </c>
+      <c r="G12">
+        <v>321</v>
       </c>
       <c r="H12">
         <v>9230.8056354522705</v>
@@ -9469,13 +11007,16 @@
         <v>226.38800000000001</v>
       </c>
       <c r="C13">
-        <v>3.0569999999999999</v>
+        <v>381.81494099999998</v>
       </c>
       <c r="D13">
         <v>129</v>
       </c>
       <c r="E13">
         <v>179</v>
+      </c>
+      <c r="G13">
+        <v>321</v>
       </c>
       <c r="H13">
         <v>9073.4734535217194</v>
@@ -9489,13 +11030,16 @@
         <v>239.09200000000001</v>
       </c>
       <c r="C14">
-        <v>2.952</v>
+        <v>383.59594700000002</v>
       </c>
       <c r="D14">
         <v>131</v>
       </c>
       <c r="E14">
         <v>181</v>
+      </c>
+      <c r="G14">
+        <v>322</v>
       </c>
       <c r="H14">
         <v>9215.0120735168402</v>
@@ -9509,13 +11053,16 @@
         <v>236.89699999999999</v>
       </c>
       <c r="C15">
-        <v>3.06</v>
+        <v>384.02462800000001</v>
       </c>
       <c r="D15">
         <v>130</v>
       </c>
       <c r="E15">
         <v>179</v>
+      </c>
+      <c r="G15">
+        <v>322</v>
       </c>
       <c r="H15">
         <v>9066.7133331298792</v>
@@ -9529,13 +11076,16 @@
         <v>230.89099999999999</v>
       </c>
       <c r="C16">
-        <v>3.04</v>
+        <v>383.21875</v>
       </c>
       <c r="D16">
         <v>129</v>
       </c>
       <c r="E16">
         <v>179</v>
+      </c>
+      <c r="G16">
+        <v>322</v>
       </c>
       <c r="H16">
         <v>9284.9714756011908</v>
@@ -9549,13 +11099,16 @@
         <v>224.28899999999999</v>
       </c>
       <c r="C17">
-        <v>3.286</v>
+        <v>384.43374599999999</v>
       </c>
       <c r="D17">
         <v>127</v>
       </c>
       <c r="E17">
         <v>181</v>
+      </c>
+      <c r="G17">
+        <v>322</v>
       </c>
       <c r="H17">
         <v>9099.56812858581</v>
@@ -9569,13 +11122,16 @@
         <v>227.048</v>
       </c>
       <c r="C18">
-        <v>3.0619999999999998</v>
+        <v>390.37704500000001</v>
       </c>
       <c r="D18">
         <v>128</v>
       </c>
       <c r="E18">
         <v>178</v>
+      </c>
+      <c r="G18">
+        <v>322</v>
       </c>
       <c r="H18">
         <v>9084.3508243560791</v>
@@ -9589,13 +11145,16 @@
         <v>229.5</v>
       </c>
       <c r="C19">
-        <v>2.96</v>
+        <v>409.52874800000001</v>
       </c>
       <c r="D19">
         <v>131</v>
       </c>
       <c r="E19">
         <v>178</v>
+      </c>
+      <c r="G19">
+        <v>322</v>
       </c>
       <c r="H19">
         <v>9056.0779571533203</v>
@@ -9609,13 +11168,16 @@
         <v>226.715</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>384.35220299999997</v>
       </c>
       <c r="D20">
         <v>128</v>
       </c>
       <c r="E20">
         <v>179</v>
+      </c>
+      <c r="G20">
+        <v>322</v>
       </c>
       <c r="H20">
         <v>9143.7227725982593</v>
@@ -9629,13 +11191,16 @@
         <v>225.58500000000001</v>
       </c>
       <c r="C21">
-        <v>3.1419999999999999</v>
+        <v>378.60488900000001</v>
       </c>
       <c r="D21">
         <v>133</v>
       </c>
       <c r="E21">
         <v>179</v>
+      </c>
+      <c r="G21">
+        <v>321</v>
       </c>
       <c r="H21">
         <v>9129.5192241668701</v>
@@ -9649,13 +11214,16 @@
         <v>230.98500000000001</v>
       </c>
       <c r="C22">
-        <v>2.9289999999999998</v>
+        <v>385.42318699999998</v>
       </c>
       <c r="D22">
         <v>127</v>
       </c>
       <c r="E22">
         <v>181</v>
+      </c>
+      <c r="G22">
+        <v>325</v>
       </c>
       <c r="H22">
         <v>9210.3974819183295</v>
@@ -9669,13 +11237,16 @@
         <v>252.601</v>
       </c>
       <c r="C23">
-        <v>2.98</v>
+        <v>382.93075599999997</v>
       </c>
       <c r="D23">
         <v>130</v>
       </c>
       <c r="E23">
         <v>178</v>
+      </c>
+      <c r="G23">
+        <v>318</v>
       </c>
       <c r="H23">
         <v>9063.6498928069996</v>
@@ -9689,13 +11260,16 @@
         <v>246.43899999999999</v>
       </c>
       <c r="C24">
-        <v>3.0179999999999998</v>
+        <v>383.329407</v>
       </c>
       <c r="D24">
         <v>128</v>
       </c>
       <c r="E24">
         <v>179</v>
+      </c>
+      <c r="G24">
+        <v>319</v>
       </c>
       <c r="H24">
         <v>9194.7269439697193</v>
@@ -9709,13 +11283,16 @@
         <v>236.37299999999999</v>
       </c>
       <c r="C25">
-        <v>2.8820000000000001</v>
+        <v>384.58728000000002</v>
       </c>
       <c r="D25">
         <v>128</v>
       </c>
       <c r="E25">
         <v>181</v>
+      </c>
+      <c r="G25">
+        <v>318</v>
       </c>
       <c r="H25">
         <v>9141.9298648834192</v>
@@ -9729,13 +11306,16 @@
         <v>227.114</v>
       </c>
       <c r="C26">
-        <v>3.0129999999999999</v>
+        <v>389.04284699999999</v>
       </c>
       <c r="D26">
         <v>131</v>
       </c>
       <c r="E26">
         <v>178</v>
+      </c>
+      <c r="G26">
+        <v>321</v>
       </c>
       <c r="H26">
         <v>9199.5902061462402</v>
@@ -9749,13 +11329,16 @@
         <v>232.06399999999999</v>
       </c>
       <c r="C27">
-        <v>2.952</v>
+        <v>382.09533699999997</v>
       </c>
       <c r="D27">
         <v>129</v>
       </c>
       <c r="E27">
         <v>177</v>
+      </c>
+      <c r="G27">
+        <v>320</v>
       </c>
       <c r="H27">
         <v>9282.0162773132306</v>
@@ -9769,13 +11352,16 @@
         <v>231.47800000000001</v>
       </c>
       <c r="C28">
-        <v>3.0190000000000001</v>
+        <v>388.54693600000002</v>
       </c>
       <c r="D28">
         <v>136</v>
       </c>
       <c r="E28">
         <v>181</v>
+      </c>
+      <c r="G28">
+        <v>322</v>
       </c>
       <c r="H28">
         <v>9222.2640514373707</v>
@@ -9789,13 +11375,16 @@
         <v>228.89</v>
       </c>
       <c r="C29">
-        <v>3.0270000000000001</v>
+        <v>377.356537</v>
       </c>
       <c r="D29">
         <v>140</v>
       </c>
       <c r="E29">
         <v>176</v>
+      </c>
+      <c r="G29">
+        <v>325</v>
       </c>
       <c r="H29">
         <v>9319.82326507568</v>
@@ -9809,13 +11398,16 @@
         <v>231.55600000000001</v>
       </c>
       <c r="C30">
-        <v>3.0009999999999999</v>
+        <v>385.36166400000002</v>
       </c>
       <c r="D30">
         <v>137</v>
       </c>
       <c r="E30">
         <v>177</v>
+      </c>
+      <c r="G30">
+        <v>324</v>
       </c>
       <c r="H30">
         <v>9130.7022571563703</v>
@@ -9829,13 +11421,16 @@
         <v>227.94800000000001</v>
       </c>
       <c r="C31">
-        <v>2.9540000000000002</v>
+        <v>384.38604700000002</v>
       </c>
       <c r="D31">
         <v>133</v>
       </c>
       <c r="E31">
         <v>178</v>
+      </c>
+      <c r="G31">
+        <v>325</v>
       </c>
       <c r="H31">
         <v>9115.4117584228497</v>
@@ -9849,13 +11444,16 @@
         <v>230.404</v>
       </c>
       <c r="C32">
-        <v>2.9670000000000001</v>
+        <v>421.82827800000001</v>
       </c>
       <c r="D32">
         <v>133</v>
       </c>
       <c r="E32">
         <v>178</v>
+      </c>
+      <c r="G32">
+        <v>323</v>
       </c>
       <c r="H32">
         <v>9264.9333477020191</v>
@@ -9869,13 +11467,16 @@
         <v>230.316</v>
       </c>
       <c r="C33">
-        <v>3.0329999999999999</v>
+        <v>386.44503800000001</v>
       </c>
       <c r="D33">
         <v>131</v>
       </c>
       <c r="E33">
         <v>185</v>
+      </c>
+      <c r="G33">
+        <v>322</v>
       </c>
       <c r="H33">
         <v>9051.2759685516303</v>
@@ -9889,13 +11490,16 @@
         <v>240.52199999999999</v>
       </c>
       <c r="C34">
-        <v>3.0489999999999999</v>
+        <v>382.62652600000001</v>
       </c>
       <c r="D34">
         <v>135</v>
       </c>
       <c r="E34">
         <v>177</v>
+      </c>
+      <c r="G34">
+        <v>323</v>
       </c>
       <c r="H34">
         <v>9230.7264804839997</v>
@@ -9909,13 +11513,16 @@
         <v>235.29900000000001</v>
       </c>
       <c r="C35">
-        <v>3.052</v>
+        <v>379.55285600000002</v>
       </c>
       <c r="D35">
         <v>133</v>
       </c>
       <c r="E35">
         <v>188</v>
+      </c>
+      <c r="G35">
+        <v>322</v>
       </c>
       <c r="H35">
         <v>9075.1531124114899</v>
@@ -9929,13 +11536,16 @@
         <v>238.23599999999999</v>
       </c>
       <c r="C36">
-        <v>2.9769999999999999</v>
+        <v>385.55908199999999</v>
       </c>
       <c r="D36">
         <v>130</v>
       </c>
       <c r="E36">
         <v>178</v>
+      </c>
+      <c r="G36">
+        <v>321</v>
       </c>
       <c r="H36">
         <v>9133.3684921264594</v>
@@ -9949,13 +11559,16 @@
         <v>236.91800000000001</v>
       </c>
       <c r="C37">
-        <v>3.0550000000000002</v>
+        <v>376.87970000000001</v>
       </c>
       <c r="D37">
         <v>137</v>
       </c>
       <c r="E37">
         <v>179</v>
+      </c>
+      <c r="G37">
+        <v>323</v>
       </c>
       <c r="H37">
         <v>9239.1111850738507</v>
@@ -9969,13 +11582,16 @@
         <v>238.36799999999999</v>
       </c>
       <c r="C38">
-        <v>3.02</v>
+        <v>380.61236600000001</v>
       </c>
       <c r="D38">
         <v>134</v>
       </c>
       <c r="E38">
         <v>181</v>
+      </c>
+      <c r="G38">
+        <v>321</v>
       </c>
       <c r="H38">
         <v>9076.4169692993091</v>
@@ -9989,13 +11605,16 @@
         <v>229.75700000000001</v>
       </c>
       <c r="C39">
-        <v>3.0190000000000001</v>
+        <v>394.05441300000001</v>
       </c>
       <c r="D39">
         <v>128</v>
       </c>
       <c r="E39">
         <v>177</v>
+      </c>
+      <c r="G39">
+        <v>321</v>
       </c>
       <c r="H39">
         <v>9093.2822227477991</v>
@@ -10009,13 +11628,16 @@
         <v>235.30099999999999</v>
       </c>
       <c r="C40">
-        <v>3.0190000000000001</v>
+        <v>380.17083700000001</v>
       </c>
       <c r="D40">
         <v>127</v>
       </c>
       <c r="E40">
         <v>181</v>
+      </c>
+      <c r="G40">
+        <v>319</v>
       </c>
       <c r="H40">
         <v>9177.12473869323</v>
@@ -10029,13 +11651,16 @@
         <v>228.71799999999999</v>
       </c>
       <c r="C41">
-        <v>2.9969999999999999</v>
+        <v>381.544128</v>
       </c>
       <c r="D41">
         <v>132</v>
       </c>
       <c r="E41">
         <v>178</v>
+      </c>
+      <c r="G41">
+        <v>321</v>
       </c>
       <c r="H41">
         <v>9082.0748805999701</v>
@@ -10049,13 +11674,16 @@
         <v>231.69</v>
       </c>
       <c r="C42">
-        <v>2.996</v>
+        <v>382.82488999999998</v>
       </c>
       <c r="D42">
         <v>134</v>
       </c>
       <c r="E42">
         <v>181</v>
+      </c>
+      <c r="G42">
+        <v>318</v>
       </c>
       <c r="H42">
         <v>9114.0756607055591</v>
@@ -10069,13 +11697,16 @@
         <v>227.78700000000001</v>
       </c>
       <c r="C43">
-        <v>2.9489999999999998</v>
+        <v>381.75295999999997</v>
       </c>
       <c r="D43">
         <v>142</v>
       </c>
       <c r="E43">
         <v>178</v>
+      </c>
+      <c r="G43">
+        <v>319</v>
       </c>
       <c r="H43">
         <v>9065.5841827392505</v>
@@ -10089,13 +11720,16 @@
         <v>231.35400000000001</v>
       </c>
       <c r="C44">
-        <v>3.0640000000000001</v>
+        <v>379.98010299999999</v>
       </c>
       <c r="D44">
         <v>133</v>
       </c>
       <c r="E44">
         <v>177</v>
+      </c>
+      <c r="G44">
+        <v>317</v>
       </c>
       <c r="H44">
         <v>9115.5123710632306</v>
@@ -10109,13 +11743,16 @@
         <v>235.774</v>
       </c>
       <c r="C45">
-        <v>2.9580000000000002</v>
+        <v>418.86138899999997</v>
       </c>
       <c r="D45">
         <v>132</v>
       </c>
       <c r="E45">
         <v>179</v>
+      </c>
+      <c r="G45">
+        <v>317</v>
       </c>
       <c r="H45">
         <v>9045.6261634826606</v>
@@ -10129,13 +11766,16 @@
         <v>229.84399999999999</v>
       </c>
       <c r="C46">
-        <v>2.9260000000000002</v>
+        <v>383.88443000000001</v>
       </c>
       <c r="D46">
         <v>142</v>
       </c>
       <c r="E46">
         <v>180</v>
+      </c>
+      <c r="G46">
+        <v>318</v>
       </c>
       <c r="H46">
         <v>9285.0110530853199</v>
@@ -10149,13 +11789,16 @@
         <v>246.97300000000001</v>
       </c>
       <c r="C47">
-        <v>2.9969999999999999</v>
+        <v>382.03619400000002</v>
       </c>
       <c r="D47">
         <v>130</v>
       </c>
       <c r="E47">
         <v>178</v>
+      </c>
+      <c r="G47">
+        <v>318</v>
       </c>
       <c r="H47">
         <v>9052.1082878112793</v>
@@ -10169,13 +11812,16 @@
         <v>233.393</v>
       </c>
       <c r="C48">
-        <v>2.9860000000000002</v>
+        <v>381.87408399999998</v>
       </c>
       <c r="D48">
         <v>138</v>
       </c>
       <c r="E48">
         <v>178</v>
+      </c>
+      <c r="G48">
+        <v>317</v>
       </c>
       <c r="H48">
         <v>9160.60471534729</v>
@@ -10189,13 +11835,16 @@
         <v>242.74</v>
       </c>
       <c r="C49">
-        <v>3.008</v>
+        <v>380.43212899999997</v>
       </c>
       <c r="D49">
         <v>137</v>
       </c>
       <c r="E49">
         <v>180</v>
+      </c>
+      <c r="G49">
+        <v>318</v>
       </c>
       <c r="H49">
         <v>9139.6033763885498</v>
@@ -10209,13 +11858,16 @@
         <v>235.13499999999999</v>
       </c>
       <c r="C50">
-        <v>2.9609999999999999</v>
+        <v>383.28741500000001</v>
       </c>
       <c r="D50">
         <v>133</v>
       </c>
       <c r="E50">
         <v>178</v>
+      </c>
+      <c r="G50">
+        <v>321</v>
       </c>
       <c r="H50">
         <v>9309.9963665008509</v>
@@ -10229,13 +11881,16 @@
         <v>230.75299999999999</v>
       </c>
       <c r="C51">
-        <v>3.0110000000000001</v>
+        <v>381.04629499999999</v>
       </c>
       <c r="D51">
         <v>132</v>
       </c>
       <c r="E51">
         <v>178</v>
+      </c>
+      <c r="G51">
+        <v>317</v>
       </c>
       <c r="H51">
         <v>9108.7057590484601</v>
@@ -10249,13 +11904,16 @@
         <v>226.46799999999999</v>
       </c>
       <c r="C52">
-        <v>3.06</v>
+        <v>385.00402800000001</v>
       </c>
       <c r="D52">
         <v>132</v>
       </c>
       <c r="E52">
         <v>179</v>
+      </c>
+      <c r="G52">
+        <v>318</v>
       </c>
       <c r="H52">
         <v>9200.1423835754395</v>
@@ -10269,13 +11927,16 @@
         <v>229.24100000000001</v>
       </c>
       <c r="C53">
-        <v>2.9119999999999999</v>
+        <v>376.493469</v>
       </c>
       <c r="D53">
         <v>148</v>
       </c>
       <c r="E53">
         <v>178</v>
+      </c>
+      <c r="G53">
+        <v>323</v>
       </c>
       <c r="H53">
         <v>9109.2054843902497</v>
@@ -10289,13 +11950,16 @@
         <v>230.137</v>
       </c>
       <c r="C54">
-        <v>3.0369999999999999</v>
+        <v>385.59912100000003</v>
       </c>
       <c r="D54">
         <v>160</v>
       </c>
       <c r="E54">
         <v>181</v>
+      </c>
+      <c r="G54">
+        <v>323</v>
       </c>
       <c r="H54">
         <v>9147.8710174560492</v>
@@ -10309,13 +11973,16 @@
         <v>227.85</v>
       </c>
       <c r="C55">
-        <v>2.97</v>
+        <v>380.70489500000002</v>
       </c>
       <c r="D55">
         <v>145</v>
       </c>
       <c r="E55">
         <v>176</v>
+      </c>
+      <c r="G55">
+        <v>323</v>
       </c>
       <c r="H55">
         <v>9127.9044151306098</v>
@@ -10329,13 +11996,16 @@
         <v>226.99100000000001</v>
       </c>
       <c r="C56">
-        <v>3.0489999999999999</v>
+        <v>383.092896</v>
       </c>
       <c r="D56">
         <v>150</v>
       </c>
       <c r="E56">
         <v>176</v>
+      </c>
+      <c r="G56">
+        <v>323</v>
       </c>
       <c r="H56">
         <v>9283.6618423461896</v>
@@ -10349,13 +12019,16 @@
         <v>228.82900000000001</v>
       </c>
       <c r="C57">
-        <v>3.0750000000000002</v>
+        <v>381.721497</v>
       </c>
       <c r="D57">
         <v>137</v>
       </c>
       <c r="E57">
         <v>182</v>
+      </c>
+      <c r="G57">
+        <v>323</v>
       </c>
       <c r="H57">
         <v>9099.3177890777497</v>
@@ -10369,13 +12042,16 @@
         <v>248.06700000000001</v>
       </c>
       <c r="C58">
-        <v>3.0249999999999999</v>
+        <v>413.63714599999997</v>
       </c>
       <c r="D58">
         <v>135</v>
       </c>
       <c r="E58">
         <v>181</v>
+      </c>
+      <c r="G58">
+        <v>322</v>
       </c>
       <c r="H58">
         <v>9112.2839450836109</v>
@@ -10389,13 +12065,16 @@
         <v>233.858</v>
       </c>
       <c r="C59">
-        <v>2.911</v>
+        <v>382.181152</v>
       </c>
       <c r="D59">
         <v>149</v>
       </c>
       <c r="E59">
         <v>177</v>
+      </c>
+      <c r="G59">
+        <v>324</v>
       </c>
       <c r="H59">
         <v>9075.2472877502405</v>
@@ -10409,13 +12088,16 @@
         <v>234.429</v>
       </c>
       <c r="C60">
-        <v>3.008</v>
+        <v>392.086029</v>
       </c>
       <c r="D60">
         <v>137</v>
       </c>
       <c r="E60">
         <v>182</v>
+      </c>
+      <c r="G60">
+        <v>319</v>
       </c>
       <c r="H60">
         <v>9193.3650970458893</v>
@@ -10429,13 +12111,16 @@
         <v>237.22200000000001</v>
       </c>
       <c r="C61">
-        <v>3.0529999999999999</v>
+        <v>381.09777800000001</v>
       </c>
       <c r="D61">
         <v>146</v>
       </c>
       <c r="E61">
         <v>178</v>
+      </c>
+      <c r="G61">
+        <v>321</v>
       </c>
       <c r="H61">
         <v>9139.2526626586896</v>
@@ -10449,13 +12134,16 @@
         <v>239.75700000000001</v>
       </c>
       <c r="C62">
-        <v>2.915</v>
+        <v>383.75091600000002</v>
       </c>
       <c r="D62">
         <v>134</v>
       </c>
       <c r="E62">
         <v>178</v>
+      </c>
+      <c r="G62">
+        <v>319</v>
       </c>
       <c r="H62">
         <v>9099.3804931640607</v>
@@ -10469,13 +12157,16 @@
         <v>239.69200000000001</v>
       </c>
       <c r="C63">
-        <v>2.9889999999999999</v>
+        <v>382.62750199999999</v>
       </c>
       <c r="D63">
         <v>139</v>
       </c>
       <c r="E63">
         <v>182</v>
+      </c>
+      <c r="G63">
+        <v>319</v>
       </c>
       <c r="H63">
         <v>9079.1463851928693</v>
@@ -10489,13 +12180,16 @@
         <v>231.5</v>
       </c>
       <c r="C64">
-        <v>3.0369999999999999</v>
+        <v>382.18499800000001</v>
       </c>
       <c r="D64">
         <v>149</v>
       </c>
       <c r="E64">
         <v>176</v>
+      </c>
+      <c r="G64">
+        <v>318</v>
       </c>
       <c r="H64">
         <v>9175.7154464721607</v>
@@ -10509,13 +12203,16 @@
         <v>240.84399999999999</v>
       </c>
       <c r="C65">
-        <v>3.0990000000000002</v>
+        <v>382.04382299999997</v>
       </c>
       <c r="D65">
         <v>152</v>
       </c>
       <c r="E65">
         <v>180</v>
+      </c>
+      <c r="G65">
+        <v>319</v>
       </c>
       <c r="H65">
         <v>9117.6576614379792</v>
@@ -10529,13 +12226,16 @@
         <v>231.541</v>
       </c>
       <c r="C66">
-        <v>2.9969999999999999</v>
+        <v>382.62365699999998</v>
       </c>
       <c r="D66">
         <v>134</v>
       </c>
       <c r="E66">
         <v>178</v>
+      </c>
+      <c r="G66">
+        <v>321</v>
       </c>
       <c r="H66">
         <v>9070.9013938903809</v>
@@ -10549,13 +12249,16 @@
         <v>233.07300000000001</v>
       </c>
       <c r="C67">
-        <v>2.9670000000000001</v>
+        <v>378.78607199999999</v>
       </c>
       <c r="D67">
         <v>130</v>
       </c>
       <c r="E67">
         <v>176</v>
+      </c>
+      <c r="G67">
+        <v>321</v>
       </c>
       <c r="H67">
         <v>9030.4083824157697</v>
@@ -10569,13 +12272,16 @@
         <v>228.72200000000001</v>
       </c>
       <c r="C68">
-        <v>3.0139999999999998</v>
+        <v>378.82806399999998</v>
       </c>
       <c r="D68">
         <v>132</v>
       </c>
       <c r="E68">
         <v>178</v>
+      </c>
+      <c r="G68">
+        <v>322</v>
       </c>
       <c r="H68">
         <v>9134.8197460174506</v>
@@ -10589,13 +12295,16 @@
         <v>227.66</v>
       </c>
       <c r="C69">
-        <v>3.03</v>
+        <v>381.64520299999998</v>
       </c>
       <c r="D69">
         <v>130</v>
       </c>
       <c r="E69">
         <v>179</v>
+      </c>
+      <c r="G69">
+        <v>323</v>
       </c>
       <c r="H69">
         <v>9055.3159713745099</v>
@@ -10609,13 +12318,16 @@
         <v>253.79300000000001</v>
       </c>
       <c r="C70">
-        <v>3.0390000000000001</v>
+        <v>380.53131100000002</v>
       </c>
       <c r="D70">
         <v>134</v>
       </c>
       <c r="E70">
         <v>177</v>
+      </c>
+      <c r="G70">
+        <v>317</v>
       </c>
       <c r="H70">
         <v>9150.9320735931396</v>
@@ -10629,13 +12341,16 @@
         <v>238.56700000000001</v>
       </c>
       <c r="C71">
-        <v>3.0720000000000001</v>
+        <v>409.10913099999999</v>
       </c>
       <c r="D71">
         <v>149</v>
       </c>
       <c r="E71">
         <v>180</v>
+      </c>
+      <c r="G71">
+        <v>317</v>
       </c>
       <c r="H71">
         <v>9092.9732322692798</v>
@@ -10649,13 +12364,16 @@
         <v>233.72399999999999</v>
       </c>
       <c r="C72">
-        <v>3.07</v>
+        <v>382.02856400000002</v>
       </c>
       <c r="D72">
         <v>128</v>
       </c>
       <c r="E72">
         <v>177</v>
+      </c>
+      <c r="G72">
+        <v>317</v>
       </c>
       <c r="H72">
         <v>9078.9783000946009</v>
@@ -10669,13 +12387,16 @@
         <v>244.553</v>
       </c>
       <c r="C73">
-        <v>2.9830000000000001</v>
+        <v>379.78552200000001</v>
       </c>
       <c r="D73">
         <v>139</v>
       </c>
       <c r="E73">
         <v>177</v>
+      </c>
+      <c r="G73">
+        <v>321</v>
       </c>
       <c r="H73">
         <v>9102.3442745208704</v>
@@ -10689,13 +12410,16 @@
         <v>235.17500000000001</v>
       </c>
       <c r="C74">
-        <v>2.972</v>
+        <v>384.35745200000002</v>
       </c>
       <c r="D74">
         <v>139</v>
       </c>
       <c r="E74">
         <v>185</v>
+      </c>
+      <c r="G74">
+        <v>322</v>
       </c>
       <c r="H74">
         <v>9169.2690849304199</v>
@@ -10709,13 +12433,16 @@
         <v>245.458</v>
       </c>
       <c r="C75">
-        <v>3.0179999999999998</v>
+        <v>383.23593099999999</v>
       </c>
       <c r="D75">
         <v>132</v>
       </c>
       <c r="E75">
         <v>176</v>
+      </c>
+      <c r="G75">
+        <v>321</v>
       </c>
       <c r="H75">
         <v>9113.5995388031006</v>
@@ -10729,13 +12456,16 @@
         <v>233.75</v>
       </c>
       <c r="C76">
-        <v>2.956</v>
+        <v>377.700806</v>
       </c>
       <c r="D76">
         <v>134</v>
       </c>
       <c r="E76">
         <v>178</v>
+      </c>
+      <c r="G76">
+        <v>321</v>
       </c>
       <c r="H76">
         <v>9167.1884059906006</v>
@@ -10749,13 +12479,16 @@
         <v>236.04900000000001</v>
       </c>
       <c r="C77">
-        <v>2.9820000000000002</v>
+        <v>380.82312000000002</v>
       </c>
       <c r="D77">
         <v>134</v>
       </c>
       <c r="E77">
         <v>181</v>
+      </c>
+      <c r="G77">
+        <v>321</v>
       </c>
       <c r="H77">
         <v>9094.2838191985993</v>
@@ -10769,13 +12502,16 @@
         <v>250.22900000000001</v>
       </c>
       <c r="C78">
-        <v>2.9620000000000002</v>
+        <v>381.57080100000002</v>
       </c>
       <c r="D78">
         <v>133</v>
       </c>
       <c r="E78">
         <v>181</v>
+      </c>
+      <c r="G78">
+        <v>322</v>
       </c>
       <c r="H78">
         <v>9162.7013683319092</v>
@@ -10789,13 +12525,16 @@
         <v>237.82</v>
       </c>
       <c r="C79">
-        <v>2.915</v>
+        <v>381.25799599999999</v>
       </c>
       <c r="D79">
         <v>135</v>
       </c>
       <c r="E79">
         <v>178</v>
+      </c>
+      <c r="G79">
+        <v>322</v>
       </c>
       <c r="H79">
         <v>9086.3733291625904</v>
@@ -10809,13 +12548,16 @@
         <v>234.22</v>
       </c>
       <c r="C80">
-        <v>3.069</v>
+        <v>380.58660900000001</v>
       </c>
       <c r="D80">
         <v>133</v>
       </c>
       <c r="E80">
         <v>188</v>
+      </c>
+      <c r="G80">
+        <v>322</v>
       </c>
       <c r="H80">
         <v>9194.4108009338306</v>
@@ -10829,13 +12571,16 @@
         <v>226.87299999999999</v>
       </c>
       <c r="C81">
-        <v>3.01</v>
+        <v>390.95495599999998</v>
       </c>
       <c r="D81">
         <v>131</v>
       </c>
       <c r="E81">
         <v>179</v>
+      </c>
+      <c r="G81">
+        <v>321</v>
       </c>
       <c r="H81">
         <v>9287.2209548950195</v>
@@ -10849,13 +12594,16 @@
         <v>235.089</v>
       </c>
       <c r="C82">
-        <v>2.9329999999999998</v>
+        <v>383.623108</v>
       </c>
       <c r="D82">
         <v>130</v>
       </c>
       <c r="E82">
         <v>178</v>
+      </c>
+      <c r="G82">
+        <v>319</v>
       </c>
       <c r="H82">
         <v>9227.25415229797</v>
@@ -10869,13 +12617,16 @@
         <v>236.69399999999999</v>
       </c>
       <c r="C83">
-        <v>2.9390000000000001</v>
+        <v>384.52148399999999</v>
       </c>
       <c r="D83">
         <v>134</v>
       </c>
       <c r="E83">
         <v>182</v>
+      </c>
+      <c r="G83">
+        <v>321</v>
       </c>
       <c r="H83">
         <v>9055.7308197021393</v>
@@ -10889,13 +12640,16 @@
         <v>237.33799999999999</v>
       </c>
       <c r="C84">
-        <v>3.0459999999999998</v>
+        <v>410.83908100000002</v>
       </c>
       <c r="D84">
         <v>132</v>
       </c>
       <c r="E84">
         <v>178</v>
+      </c>
+      <c r="G84">
+        <v>323</v>
       </c>
       <c r="H84">
         <v>9076.0684013366699</v>
@@ -10909,13 +12663,16 @@
         <v>237.19900000000001</v>
       </c>
       <c r="C85">
-        <v>2.9790000000000001</v>
+        <v>380.21087599999998</v>
       </c>
       <c r="D85">
         <v>138</v>
       </c>
       <c r="E85">
         <v>178</v>
+      </c>
+      <c r="G85">
+        <v>322</v>
       </c>
       <c r="H85">
         <v>9071.3570117950403</v>
@@ -10929,13 +12686,16 @@
         <v>244.12899999999999</v>
       </c>
       <c r="C86">
-        <v>2.968</v>
+        <v>382.28988600000002</v>
       </c>
       <c r="D86">
         <v>138</v>
       </c>
       <c r="E86">
         <v>180</v>
+      </c>
+      <c r="G86">
+        <v>322</v>
       </c>
       <c r="H86">
         <v>9112.7631664276105</v>
@@ -10949,13 +12709,16 @@
         <v>235.108</v>
       </c>
       <c r="C87">
-        <v>3.0310000000000001</v>
+        <v>385.28823899999998</v>
       </c>
       <c r="D87">
         <v>130</v>
       </c>
       <c r="E87">
         <v>178</v>
+      </c>
+      <c r="G87">
+        <v>321</v>
       </c>
       <c r="H87">
         <v>9094.8064327239899</v>
@@ -10969,13 +12732,16 @@
         <v>231.50800000000001</v>
       </c>
       <c r="C88">
-        <v>2.911</v>
+        <v>382.61413599999997</v>
       </c>
       <c r="D88">
         <v>131</v>
       </c>
       <c r="E88">
         <v>182</v>
+      </c>
+      <c r="G88">
+        <v>322</v>
       </c>
       <c r="H88">
         <v>9102.0362377166693</v>
@@ -10989,13 +12755,16 @@
         <v>235.09</v>
       </c>
       <c r="C89">
-        <v>3.0459999999999998</v>
+        <v>380.46646099999998</v>
       </c>
       <c r="D89">
         <v>145</v>
       </c>
       <c r="E89">
         <v>181</v>
+      </c>
+      <c r="G89">
+        <v>329</v>
       </c>
       <c r="H89">
         <v>9093.7631130218506</v>
@@ -11009,13 +12778,16 @@
         <v>227.06</v>
       </c>
       <c r="C90">
-        <v>2.996</v>
+        <v>381.66427599999997</v>
       </c>
       <c r="D90">
         <v>147</v>
       </c>
       <c r="E90">
         <v>178</v>
+      </c>
+      <c r="G90">
+        <v>328</v>
       </c>
       <c r="H90">
         <v>9172.9953289031891</v>
@@ -11029,13 +12801,16 @@
         <v>229.74100000000001</v>
       </c>
       <c r="C91">
-        <v>3.0390000000000001</v>
+        <v>379.36019900000002</v>
       </c>
       <c r="D91">
         <v>135</v>
       </c>
       <c r="E91">
         <v>182</v>
+      </c>
+      <c r="G91">
+        <v>326</v>
       </c>
       <c r="H91">
         <v>9071.2511539459192</v>
@@ -11049,13 +12824,16 @@
         <v>232.85499999999999</v>
       </c>
       <c r="C92">
-        <v>3.0230000000000001</v>
+        <v>382.23266599999999</v>
       </c>
       <c r="D92">
         <v>134</v>
       </c>
       <c r="E92">
         <v>177</v>
+      </c>
+      <c r="G92">
+        <v>321</v>
       </c>
       <c r="H92">
         <v>9232.6602935790997</v>
@@ -11069,13 +12847,16 @@
         <v>229.255</v>
       </c>
       <c r="C93">
-        <v>2.9529999999999998</v>
+        <v>382.24410999999998</v>
       </c>
       <c r="D93">
         <v>132</v>
       </c>
       <c r="E93">
         <v>180</v>
+      </c>
+      <c r="G93">
+        <v>322</v>
       </c>
       <c r="H93">
         <v>9013.40818405151</v>
@@ -11089,13 +12870,16 @@
         <v>228.334</v>
       </c>
       <c r="C94">
-        <v>3.0939999999999999</v>
+        <v>382.91549700000002</v>
       </c>
       <c r="D94">
         <v>128</v>
       </c>
       <c r="E94">
         <v>179</v>
+      </c>
+      <c r="G94">
+        <v>319</v>
       </c>
       <c r="H94">
         <v>9223.2036590576099</v>
@@ -11109,13 +12893,16 @@
         <v>231.428</v>
       </c>
       <c r="C95">
-        <v>2.9449999999999998</v>
+        <v>387.378693</v>
       </c>
       <c r="D95">
         <v>129</v>
       </c>
       <c r="E95">
         <v>178</v>
+      </c>
+      <c r="G95">
+        <v>319</v>
       </c>
       <c r="H95">
         <v>9055.7982921600305</v>
@@ -11129,13 +12916,16 @@
         <v>228.48400000000001</v>
       </c>
       <c r="C96">
-        <v>3.032</v>
+        <v>381.088257</v>
       </c>
       <c r="D96">
         <v>129</v>
       </c>
       <c r="E96">
         <v>178</v>
+      </c>
+      <c r="G96">
+        <v>318</v>
       </c>
       <c r="H96">
         <v>9235.7802391052192</v>
@@ -11149,13 +12939,16 @@
         <v>227.97</v>
       </c>
       <c r="C97">
-        <v>3.0419999999999998</v>
+        <v>405.78079200000002</v>
       </c>
       <c r="D97">
         <v>131</v>
       </c>
       <c r="E97">
         <v>181</v>
+      </c>
+      <c r="G97">
+        <v>320</v>
       </c>
       <c r="H97">
         <v>9086.3389968871998</v>
@@ -11169,13 +12962,16 @@
         <v>229.489</v>
       </c>
       <c r="C98">
-        <v>2.93</v>
+        <v>385.372162</v>
       </c>
       <c r="D98">
         <v>131</v>
       </c>
       <c r="E98">
         <v>179</v>
+      </c>
+      <c r="G98">
+        <v>321</v>
       </c>
       <c r="H98">
         <v>9225.7297039031891</v>
@@ -11189,13 +12985,16 @@
         <v>224.09</v>
       </c>
       <c r="C99">
-        <v>3.04</v>
+        <v>379.94766199999998</v>
       </c>
       <c r="D99">
         <v>138</v>
       </c>
       <c r="E99">
         <v>184</v>
+      </c>
+      <c r="G99">
+        <v>321</v>
       </c>
       <c r="H99">
         <v>9068.9401626586896</v>
@@ -11209,13 +13008,16 @@
         <v>230.68600000000001</v>
       </c>
       <c r="C100">
-        <v>2.9020000000000001</v>
+        <v>383.75473</v>
       </c>
       <c r="D100">
         <v>133</v>
       </c>
       <c r="E100">
         <v>181</v>
+      </c>
+      <c r="G100">
+        <v>321</v>
       </c>
       <c r="H100">
         <v>9211.10105514526</v>
@@ -11229,13 +13031,16 @@
         <v>226.21</v>
       </c>
       <c r="C101">
-        <v>2.944</v>
+        <v>382.65609699999999</v>
       </c>
       <c r="D101">
         <v>132</v>
       </c>
       <c r="E101">
         <v>178</v>
+      </c>
+      <c r="G101">
+        <v>322</v>
       </c>
       <c r="H101">
         <v>9083.3320617675708</v>
@@ -11251,7 +13056,7 @@
       </c>
       <c r="C103">
         <f t="shared" ref="C103:I103" si="0">SUM(C1:C101)/100</f>
-        <v>3.0816999999999997</v>
+        <v>385.43599547000014</v>
       </c>
       <c r="D103">
         <f t="shared" si="0"/>
@@ -11267,7 +13072,7 @@
       </c>
       <c r="G103">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>321.01</v>
       </c>
       <c r="H103">
         <f t="shared" si="0"/>
